--- a/results/KNN/375Hz_2classes/res_hyperopt.xlsx
+++ b/results/KNN/375Hz_2classes/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 97, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 96, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 80, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 82, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 18, 'n_neighbors': 8, 'p': 1}</t>
+          <t>{'leaf_size': 48, 'n_neighbors': 8, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 14, 'n_neighbors': 5, 'p': 1}</t>
+          <t>{'leaf_size': 7, 'n_neighbors': 5, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 26, 'n_neighbors': 7, 'p': 1}</t>
+          <t>{'leaf_size': 30, 'n_neighbors': 54, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 17, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 24, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 82, 'n_neighbors': 4, 'p': 1}</t>
+          <t>{'leaf_size': 17, 'n_neighbors': 4, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 8, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 38, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 67, 'n_neighbors': 1, 'p': 3}</t>
+          <t>{'leaf_size': 27, 'n_neighbors': 16, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 24, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 93, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 27, 'n_neighbors': 37, 'p': 1}</t>
+          <t>{'leaf_size': 12, 'n_neighbors': 37, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 42, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 97, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 90, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 48, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 56, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 91, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 84, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 82, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
